--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -582,34 +582,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.282872386776422</v>
+        <v>-0.1278195408837234</v>
       </c>
       <c r="C2">
-        <v>0.1391894435007327</v>
+        <v>-1.400444400388857</v>
       </c>
       <c r="D2">
-        <v>-0.182694870696341</v>
+        <v>0.08695924927729271</v>
       </c>
       <c r="E2">
-        <v>0.3443354285759472</v>
+        <v>-0.207196275323166</v>
       </c>
       <c r="F2">
-        <v>0.1070053646347159</v>
+        <v>0.3329321255475683</v>
       </c>
       <c r="G2">
-        <v>0.2095078597799856</v>
+        <v>0.101692144383436</v>
       </c>
       <c r="H2">
-        <v>0.110633009540361</v>
+        <v>0.2070326302046627</v>
       </c>
       <c r="I2">
-        <v>0.6128907522960124</v>
+        <v>0.1094798668430039</v>
       </c>
       <c r="J2">
-        <v>0.8708754778845325</v>
+        <v>0.6123535359610832</v>
       </c>
       <c r="K2">
-        <v>-0.8533573809972426</v>
+        <v>0.8706252039810712</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,34 +617,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2750606270018259</v>
+        <v>0.5447147469754596</v>
       </c>
       <c r="C3">
-        <v>0.5534868575902183</v>
+        <v>0.001955153691105105</v>
       </c>
       <c r="D3">
-        <v>0.2080306981463169</v>
+        <v>0.4339574590591693</v>
       </c>
       <c r="E3">
-        <v>0.2637694639246414</v>
+        <v>0.1559537485280918</v>
       </c>
       <c r="F3">
-        <v>0.1446758428348626</v>
+        <v>0.2410754634991643</v>
       </c>
       <c r="G3">
-        <v>0.6381972808990434</v>
+        <v>0.1347863954460349</v>
       </c>
       <c r="H3">
-        <v>0.892409660067914</v>
+        <v>0.6338877181444649</v>
       </c>
       <c r="I3">
-        <v>-0.8334509197017121</v>
+        <v>0.8905316652766015</v>
       </c>
       <c r="J3">
-        <v>-0.1806300843769859</v>
+        <v>-0.8342693007396872</v>
       </c>
       <c r="K3">
-        <v>0.1825572214681606</v>
+        <v>-0.1809867134402706</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,34 +652,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1918994249285815</v>
+        <v>0.4178261858414339</v>
       </c>
       <c r="C4">
-        <v>0.239828553585737</v>
+        <v>0.1320128381891874</v>
       </c>
       <c r="D4">
-        <v>0.1203502894047785</v>
+        <v>0.2167499100690802</v>
       </c>
       <c r="E4">
-        <v>0.6162427231036979</v>
+        <v>0.1128318376506894</v>
       </c>
       <c r="F4">
-        <v>0.8725296081739512</v>
+        <v>0.6140076662505021</v>
       </c>
       <c r="G4">
-        <v>-0.8520779198862551</v>
+        <v>0.8719046650920586</v>
       </c>
       <c r="H4">
-        <v>-0.1986054693098328</v>
+        <v>-0.8522446856725341</v>
       </c>
       <c r="I4">
-        <v>0.164895676365706</v>
+        <v>-0.1986482585427252</v>
       </c>
       <c r="J4">
-        <v>-0.7358907623030519</v>
+        <v>0.1648850825765775</v>
       </c>
       <c r="K4">
-        <v>0.3344822619593895</v>
+        <v>-0.7358932949942634</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,34 +687,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2023032603298698</v>
+        <v>0.2987028809941715</v>
       </c>
       <c r="C5">
-        <v>0.6254400633356464</v>
+        <v>0.1220291778826379</v>
       </c>
       <c r="D5">
-        <v>0.85282204567298</v>
+        <v>0.5943001037495309</v>
       </c>
       <c r="E5">
-        <v>-0.8813162353832781</v>
+        <v>0.8426663495950357</v>
       </c>
       <c r="F5">
-        <v>-0.2307498541254956</v>
+        <v>-0.8843890704881969</v>
       </c>
       <c r="G5">
-        <v>0.1318997099156809</v>
+        <v>-0.2316442249927503</v>
       </c>
       <c r="H5">
-        <v>-0.7691308072183836</v>
+        <v>0.131645037661246</v>
       </c>
       <c r="I5">
-        <v>0.301173166579823</v>
+        <v>-0.7692023903738299</v>
       </c>
       <c r="J5">
-        <v>-0.2759067096457259</v>
+        <v>0.3011532043707359</v>
       </c>
       <c r="K5">
-        <v>-0.4815182333746927</v>
+        <v>-0.2759122492816765</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,34 +722,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8240207549100882</v>
+        <v>0.5654988129866392</v>
       </c>
       <c r="C6">
-        <v>-0.8834400190618514</v>
+        <v>0.8405425659164625</v>
       </c>
       <c r="D6">
-        <v>-0.2234668893430731</v>
+        <v>-0.8771061057057743</v>
       </c>
       <c r="E6">
-        <v>0.1423162228589251</v>
+        <v>-0.2212277120495061</v>
       </c>
       <c r="F6">
-        <v>-0.7576896617840617</v>
+        <v>0.1430861830955678</v>
       </c>
       <c r="G6">
-        <v>0.3129479666538719</v>
+        <v>-0.7574275902997809</v>
       </c>
       <c r="H6">
-        <v>-0.2640230888223336</v>
+        <v>0.3130368251941282</v>
       </c>
       <c r="I6">
-        <v>-0.4695989885331262</v>
+        <v>-0.26399300444011</v>
       </c>
       <c r="J6">
-        <v>0.5095561729841656</v>
+        <v>-0.4695888087369317</v>
       </c>
       <c r="K6">
-        <v>-0.226786726508225</v>
+        <v>0.509559616829137</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,34 +757,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.3453490504388863</v>
+        <v>-0.9989882668015876</v>
       </c>
       <c r="C7">
-        <v>0.05047105392560119</v>
+        <v>-0.31307288098283</v>
       </c>
       <c r="D7">
-        <v>-0.83756240835547</v>
+        <v>0.06321343652415951</v>
       </c>
       <c r="E7">
-        <v>0.2380186391052039</v>
+        <v>-0.8323569178484489</v>
       </c>
       <c r="F7">
-        <v>-0.3369057261414908</v>
+        <v>0.240154187874971</v>
       </c>
       <c r="G7">
-        <v>-0.5416351540011936</v>
+        <v>-0.3360291699081773</v>
       </c>
       <c r="H7">
-        <v>0.4378696407944773</v>
+        <v>-0.54127534092662</v>
       </c>
       <c r="I7">
-        <v>-0.2983290036150871</v>
+        <v>0.4380173397222749</v>
       </c>
       <c r="J7">
-        <v>-0.3162381895859678</v>
+        <v>-0.2982683749317745</v>
       </c>
       <c r="K7">
-        <v>-0.2928084366771486</v>
+        <v>-0.3162133022174854</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,34 +792,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.7422476366981072</v>
+        <v>0.1585282081815222</v>
       </c>
       <c r="C8">
-        <v>0.3162863437924887</v>
+        <v>-0.7540892131611641</v>
       </c>
       <c r="D8">
-        <v>-0.2663152355556169</v>
+        <v>0.3107446784608449</v>
       </c>
       <c r="E8">
-        <v>-0.4745738317060451</v>
+        <v>-0.2689678476130288</v>
       </c>
       <c r="F8">
-        <v>0.5033030119909454</v>
+        <v>-0.4758419697301518</v>
       </c>
       <c r="G8">
-        <v>-0.2336496331081919</v>
+        <v>0.5026967102291701</v>
       </c>
       <c r="H8">
-        <v>-0.2519093219356206</v>
+        <v>-0.2339395072814273</v>
       </c>
       <c r="I8">
-        <v>-0.2286430458875994</v>
+        <v>-0.2520479114279362</v>
       </c>
       <c r="J8">
-        <v>-0.5938837416006923</v>
+        <v>-0.2287093058339515</v>
       </c>
       <c r="K8">
-        <v>0.06190409654164158</v>
+        <v>-0.5939154206293106</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,34 +827,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.00619269375287701</v>
+        <v>0.5708672202635848</v>
       </c>
       <c r="C9">
-        <v>-0.3336679001236204</v>
+        <v>-0.1280619160306041</v>
       </c>
       <c r="D9">
-        <v>0.5887475516261532</v>
+        <v>-0.390397430094944</v>
       </c>
       <c r="E9">
-        <v>-0.1739978958108406</v>
+        <v>0.5623484475265214</v>
       </c>
       <c r="F9">
-        <v>-0.2042525916245146</v>
+        <v>-0.1862827769703213</v>
       </c>
       <c r="G9">
-        <v>-0.1865645222487989</v>
+        <v>-0.2099693877891357</v>
       </c>
       <c r="H9">
-        <v>-0.5543992815454399</v>
+        <v>-0.1892248457786991</v>
       </c>
       <c r="I9">
-        <v>0.1001822482843727</v>
+        <v>-0.5556372688865794</v>
       </c>
       <c r="J9">
-        <v>-0.03126473275901087</v>
+        <v>0.09960614818241281</v>
       </c>
       <c r="K9">
-        <v>-0.1410506211186619</v>
+        <v>-0.03153282219454001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -862,34 +862,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.3911393015443105</v>
+        <v>-0.5880056801767868</v>
       </c>
       <c r="C10">
-        <v>-0.2979577194736586</v>
+        <v>0.4383886238637034</v>
       </c>
       <c r="D10">
-        <v>-0.2956322122566587</v>
+        <v>-0.2776623976024654</v>
       </c>
       <c r="E10">
-        <v>-0.2635227406874879</v>
+        <v>-0.2869276062278247</v>
       </c>
       <c r="F10">
-        <v>-0.6249641526670209</v>
+        <v>-0.2597897169002801</v>
       </c>
       <c r="G10">
-        <v>0.03245628485901808</v>
+        <v>-0.623363232311934</v>
       </c>
       <c r="H10">
-        <v>-0.09772803603944658</v>
+        <v>0.03314284490197711</v>
       </c>
       <c r="I10">
-        <v>-0.2069514014028122</v>
+        <v>-0.09743360247869032</v>
       </c>
       <c r="J10">
-        <v>-1.036602919657539</v>
+        <v>-0.2068251325899858</v>
       </c>
       <c r="K10">
-        <v>-0.4560229796881132</v>
+        <v>-1.036548768856761</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,34 +897,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.228230158963832</v>
+        <v>-0.2102603443096386</v>
       </c>
       <c r="C11">
-        <v>-0.1886450477650728</v>
+        <v>-0.2120499133054097</v>
       </c>
       <c r="D11">
-        <v>-0.5467980559473664</v>
+        <v>-0.1816236201806256</v>
       </c>
       <c r="E11">
-        <v>0.1120680736150478</v>
+        <v>-0.5437514435559043</v>
       </c>
       <c r="F11">
-        <v>-0.01748087635905388</v>
+        <v>0.1133900045823698</v>
       </c>
       <c r="G11">
-        <v>-0.1264250868990488</v>
+        <v>-0.01690728797492691</v>
       </c>
       <c r="H11">
-        <v>-0.9559539928657461</v>
+        <v>-0.1261762057981929</v>
       </c>
       <c r="I11">
-        <v>-0.3753202137097185</v>
+        <v>-0.9558460028783662</v>
       </c>
       <c r="J11">
-        <v>-0.4586594580766912</v>
+        <v>-0.3752733566469112</v>
       </c>
       <c r="K11">
-        <v>-0.6765490042469573</v>
+        <v>-0.4586391267071986</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,34 +932,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.5591547568613399</v>
+        <v>-0.1939803210945991</v>
       </c>
       <c r="C12">
-        <v>0.09787708368923709</v>
+        <v>-0.5579424334817151</v>
       </c>
       <c r="D12">
-        <v>-0.03242713058169561</v>
+        <v>0.09844375035972808</v>
       </c>
       <c r="E12">
-        <v>-0.1416815451927503</v>
+        <v>-0.03216374626862839</v>
       </c>
       <c r="F12">
-        <v>-0.9713369016796535</v>
+        <v>-0.1415591146121002</v>
       </c>
       <c r="G12">
-        <v>-0.390754202413632</v>
+        <v>-0.9712799915822796</v>
       </c>
       <c r="H12">
-        <v>-0.4741138500012969</v>
+        <v>-0.3907277485715169</v>
       </c>
       <c r="I12">
-        <v>-0.6920114308521601</v>
+        <v>-0.4741015533124014</v>
       </c>
       <c r="J12">
-        <v>0.8717720887233864</v>
+        <v>-0.692005714912784</v>
       </c>
       <c r="K12">
-        <v>-0.4642089603862817</v>
+        <v>0.8717747456957818</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,34 +967,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1398755720077088</v>
+        <v>0.2707464529491325</v>
       </c>
       <c r="C13">
-        <v>-0.04718941243373825</v>
+        <v>0.06232838649038364</v>
       </c>
       <c r="D13">
-        <v>-0.9130114627925084</v>
+        <v>-0.08323367572495516</v>
       </c>
       <c r="E13">
-        <v>-0.3492324732466185</v>
+        <v>-0.9297582624152663</v>
       </c>
       <c r="F13">
-        <v>-0.4403994753588329</v>
+        <v>-0.357013373929053</v>
       </c>
       <c r="G13">
-        <v>-0.6619245159313032</v>
+        <v>-0.4440146383915445</v>
       </c>
       <c r="H13">
-        <v>0.900173610209962</v>
+        <v>-0.6636041934262084</v>
       </c>
       <c r="I13">
-        <v>-0.4365905078372946</v>
+        <v>0.8993931982447689</v>
       </c>
       <c r="J13">
-        <v>1.003661313589152</v>
+        <v>-0.4369531029409762</v>
       </c>
       <c r="K13">
-        <v>-0.09695126965353879</v>
+        <v>1.003492844607284</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,34 +1002,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1.007520009675017</v>
+        <v>-0.1777422226074639</v>
       </c>
       <c r="C14">
-        <v>-0.3857468722612991</v>
+        <v>-0.9662726614299468</v>
       </c>
       <c r="D14">
-        <v>-0.4502017751758141</v>
+        <v>-0.3668156737460341</v>
       </c>
       <c r="E14">
-        <v>-0.6594324126472006</v>
+        <v>-0.441522535107442</v>
       </c>
       <c r="F14">
-        <v>0.9083245926860781</v>
+        <v>-0.6554532109500923</v>
       </c>
       <c r="G14">
-        <v>-0.4258347558073555</v>
+        <v>0.9101489502747081</v>
       </c>
       <c r="H14">
-        <v>1.015616079910623</v>
+        <v>-0.4249983366195054</v>
       </c>
       <c r="I14">
-        <v>-0.08444455851082849</v>
+        <v>1.015999555749994</v>
       </c>
       <c r="J14">
-        <v>-0.2945431432588089</v>
+        <v>-0.08426874508913906</v>
       </c>
       <c r="K14">
-        <v>0.3040816658791113</v>
+        <v>-0.294462537504619</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.3077970529158559</v>
+        <v>-0.2244109514860759</v>
       </c>
       <c r="C15">
-        <v>-0.5788562590806742</v>
+        <v>-0.3609463815409155</v>
       </c>
       <c r="D15">
-        <v>0.961338929688949</v>
+        <v>-0.6024388739472215</v>
       </c>
       <c r="E15">
-        <v>-0.3851068719675381</v>
+        <v>0.9508768341145255</v>
       </c>
       <c r="F15">
-        <v>1.050866189894518</v>
+        <v>-0.3897482266356107</v>
       </c>
       <c r="G15">
-        <v>-0.05163699300024938</v>
+        <v>1.048807121260573</v>
       </c>
       <c r="H15">
-        <v>-0.2628248666403167</v>
+        <v>-0.05255046847064687</v>
       </c>
       <c r="I15">
-        <v>0.3353140868060093</v>
+        <v>-0.2632301165777211</v>
       </c>
       <c r="J15">
-        <v>0.009465662865194846</v>
+        <v>0.3351343036404092</v>
       </c>
       <c r="K15">
-        <v>0.7265657060874963</v>
+        <v>0.009385904711892601</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1072,34 +1072,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1.139271322614915</v>
+        <v>-0.4245064810212553</v>
       </c>
       <c r="C16">
-        <v>-0.2982492763927073</v>
+        <v>1.037734429689356</v>
       </c>
       <c r="D16">
-        <v>1.093791915679716</v>
+        <v>-0.3468225008504117</v>
       </c>
       <c r="E16">
-        <v>-0.02972831832925377</v>
+        <v>1.070715795931569</v>
       </c>
       <c r="F16">
-        <v>-0.250970648745674</v>
+        <v>-0.04069625057600418</v>
       </c>
       <c r="G16">
-        <v>0.3423607205295725</v>
+        <v>-0.2561834828541579</v>
       </c>
       <c r="H16">
-        <v>0.01421452142035373</v>
+        <v>0.3398831621955681</v>
       </c>
       <c r="I16">
-        <v>0.7302167878130713</v>
+        <v>0.01303698643746765</v>
       </c>
       <c r="J16">
-        <v>2.425529404116681</v>
+        <v>0.7296571284789803</v>
       </c>
       <c r="K16">
-        <v>9.269510203911928</v>
+        <v>2.425263408987349</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,34 +1107,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.2876812562600493</v>
+        <v>1.048302449822014</v>
       </c>
       <c r="C17">
-        <v>1.102566704251488</v>
+        <v>-0.3380477122786401</v>
       </c>
       <c r="D17">
-        <v>-0.02192591428551849</v>
+        <v>1.078518199975304</v>
       </c>
       <c r="E17">
-        <v>-0.2436605879111656</v>
+        <v>-0.03338618974149576</v>
       </c>
       <c r="F17">
-        <v>0.3494215681832005</v>
+        <v>-0.2491226352005299</v>
       </c>
       <c r="G17">
-        <v>0.02114969792139543</v>
+        <v>0.3468183386966098</v>
       </c>
       <c r="H17">
-        <v>0.7370887910462527</v>
+        <v>0.01990898967064902</v>
       </c>
       <c r="I17">
-        <v>2.432369740824074</v>
+        <v>0.7364974651863733</v>
       </c>
       <c r="J17">
-        <v>9.276334707790259</v>
+        <v>2.432087912865682</v>
       </c>
       <c r="K17">
-        <v>-8.274453695494744</v>
+        <v>9.276200387606567</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,34 +1142,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.9955923004358076</v>
+        <v>-0.4450221160943206</v>
       </c>
       <c r="C18">
-        <v>-0.0871855372237873</v>
+        <v>1.013258577037035</v>
       </c>
       <c r="D18">
-        <v>-0.2892511864441449</v>
+        <v>-0.07897678827447507</v>
       </c>
       <c r="E18">
-        <v>0.3130908916669468</v>
+        <v>-0.2854533117167836</v>
       </c>
       <c r="F18">
-        <v>-0.0108203968125144</v>
+        <v>0.3148482439627</v>
       </c>
       <c r="G18">
-        <v>0.7071725634927386</v>
+        <v>-0.01000723788286506</v>
       </c>
       <c r="H18">
-        <v>2.403421102624959</v>
+        <v>0.7075488269872576</v>
       </c>
       <c r="I18">
-        <v>9.247842001542866</v>
+        <v>2.403595206618287</v>
       </c>
       <c r="J18">
-        <v>-8.302731520459806</v>
+        <v>9.247922562641504</v>
       </c>
       <c r="K18">
-        <v>-0.5932976437114486</v>
+        <v>-8.302694243367595</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,34 +1177,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.0533123394792912</v>
+        <v>1.047131774781531</v>
       </c>
       <c r="C19">
-        <v>-0.2864980261873478</v>
+        <v>-0.0762236280176779</v>
       </c>
       <c r="D19">
-        <v>0.3015019608161922</v>
+        <v>-0.2970422425675381</v>
       </c>
       <c r="E19">
-        <v>-0.02894181086942849</v>
+        <v>0.2967268299057859</v>
       </c>
       <c r="F19">
-        <v>0.6860724501299835</v>
+        <v>-0.03110735124562009</v>
       </c>
       <c r="G19">
-        <v>2.380962765938485</v>
+        <v>0.6850904903007842</v>
       </c>
       <c r="H19">
-        <v>9.224764288378545</v>
+        <v>2.380517493453967</v>
       </c>
       <c r="I19">
-        <v>-8.326091704608711</v>
+        <v>9.2245623784926</v>
       </c>
       <c r="J19">
-        <v>-0.6167866614867294</v>
+        <v>-8.326183261142877</v>
       </c>
       <c r="K19">
-        <v>0.9660844828649828</v>
+        <v>-0.6168281780219288</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,34 +1212,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.5437734556935978</v>
+        <v>-0.333499057523928</v>
       </c>
       <c r="C20">
-        <v>0.1702226893339956</v>
+        <v>-0.4283215140497347</v>
       </c>
       <c r="D20">
-        <v>-0.1022974921431762</v>
+        <v>0.2233711486320382</v>
       </c>
       <c r="E20">
-        <v>0.63883117546281</v>
+        <v>-0.07834862591279368</v>
       </c>
       <c r="F20">
-        <v>2.345515881559747</v>
+        <v>0.6496436059220461</v>
       </c>
       <c r="G20">
-        <v>9.194643401784708</v>
+        <v>2.35039660686013</v>
       </c>
       <c r="H20">
-        <v>-8.35380748862633</v>
+        <v>9.19684659447498</v>
       </c>
       <c r="I20">
-        <v>-0.6434163542466904</v>
+        <v>-8.352812953902838</v>
       </c>
       <c r="J20">
-        <v>0.9399452457891766</v>
+        <v>-0.642967415097735</v>
       </c>
       <c r="K20">
-        <v>-2.026139092643445</v>
+        <v>0.9401478997058104</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,34 +1247,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1269585753652727</v>
+        <v>-0.4715856280184577</v>
       </c>
       <c r="C21">
-        <v>-0.1306388881700511</v>
+        <v>0.1950297526051633</v>
       </c>
       <c r="D21">
-        <v>0.6141551499506877</v>
+        <v>-0.1030246514249161</v>
       </c>
       <c r="E21">
-        <v>2.321229248582915</v>
+        <v>0.6253569729452143</v>
       </c>
       <c r="F21">
-        <v>9.170020105529264</v>
+        <v>2.325773310604686</v>
       </c>
       <c r="G21">
-        <v>-8.378790661567026</v>
+        <v>9.171863421534285</v>
       </c>
       <c r="H21">
-        <v>-0.668646313777596</v>
+        <v>-8.378042913433744</v>
       </c>
       <c r="I21">
-        <v>0.9145696739774734</v>
+        <v>-0.6683429869094382</v>
       </c>
       <c r="J21">
-        <v>-2.051594272676513</v>
+        <v>0.9146927196727432</v>
       </c>
       <c r="K21">
-        <v>0.2124867959412257</v>
+        <v>-2.051544358723237</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,34 +1282,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.02044773294388247</v>
+        <v>0.3052209078313319</v>
       </c>
       <c r="C22">
-        <v>0.6702777838950345</v>
+        <v>-0.04690201748056927</v>
       </c>
       <c r="D22">
-        <v>2.355311064516826</v>
+        <v>0.6594387888791253</v>
       </c>
       <c r="E22">
-        <v>9.195119489401716</v>
+        <v>2.350872694477139</v>
       </c>
       <c r="F22">
-        <v>-8.357352010851283</v>
+        <v>9.193302072250027</v>
       </c>
       <c r="G22">
-        <v>-0.6486996043872704</v>
+        <v>-8.358096204043417</v>
       </c>
       <c r="H22">
-        <v>0.933908325411367</v>
+        <v>-0.6490043354755446</v>
       </c>
       <c r="I22">
-        <v>-2.032503447757091</v>
+        <v>0.9337835445921647</v>
       </c>
       <c r="J22">
-        <v>0.2314766118486793</v>
+        <v>-2.032554542815784</v>
       </c>
       <c r="K22">
-        <v>-0.2196984654044191</v>
+        <v>0.2314556895223195</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,34 +1317,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.5134276986299353</v>
+        <v>-0.2037521027456684</v>
       </c>
       <c r="C23">
-        <v>2.260143333751186</v>
+        <v>0.5642710581134855</v>
       </c>
       <c r="D23">
-        <v>9.140692358735786</v>
+        <v>2.296445563811207</v>
       </c>
       <c r="E23">
-        <v>-8.393905998263049</v>
+        <v>9.156748084838261</v>
       </c>
       <c r="F23">
-        <v>-0.6763647928704721</v>
+        <v>-8.38576139252662</v>
       </c>
       <c r="G23">
-        <v>0.9105011857394278</v>
+        <v>-0.6724114751474837</v>
       </c>
       <c r="H23">
-        <v>-2.053840367633118</v>
+        <v>0.9124466247161374</v>
       </c>
       <c r="I23">
-        <v>0.2111440141036455</v>
+        <v>-2.052887140560817</v>
       </c>
       <c r="J23">
-        <v>-0.2395424444363658</v>
+        <v>0.2116117104903729</v>
       </c>
       <c r="K23">
-        <v>-0.379677132609091</v>
+        <v>-0.2393130690951168</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,34 +1352,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2.211279720138829</v>
+        <v>0.5154074445011286</v>
       </c>
       <c r="C24">
-        <v>9.112923508459115</v>
+        <v>2.268676713534536</v>
       </c>
       <c r="D24">
-        <v>-8.411125843300541</v>
+        <v>9.13952823980077</v>
       </c>
       <c r="E24">
-        <v>-0.688459908824067</v>
+        <v>-8.397856508480213</v>
       </c>
       <c r="F24">
-        <v>0.9009170582553292</v>
+        <v>-0.6819956026315825</v>
       </c>
       <c r="G24">
-        <v>-2.06219729845007</v>
+        <v>0.9040896938991861</v>
       </c>
       <c r="H24">
-        <v>0.2033872967055401</v>
+        <v>-2.060643857958923</v>
       </c>
       <c r="I24">
-        <v>-0.2470056675122654</v>
+        <v>0.2041484874144732</v>
       </c>
       <c r="J24">
-        <v>-0.386996833524363</v>
+        <v>-0.2466327700103889</v>
       </c>
       <c r="K24">
-        <v>0.1394248687261353</v>
+        <v>-0.3868141421360822</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,34 +1387,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9.064203582056169</v>
+        <v>2.219956787131591</v>
       </c>
       <c r="C25">
-        <v>-8.445554111503538</v>
+        <v>9.105099971597772</v>
       </c>
       <c r="D25">
-        <v>-0.7101236369231867</v>
+        <v>-8.419520236579334</v>
       </c>
       <c r="E25">
-        <v>0.8845767628540272</v>
+        <v>-0.6983358980328844</v>
       </c>
       <c r="F25">
-        <v>-2.07579547640469</v>
+        <v>0.8904915159445659</v>
       </c>
       <c r="G25">
-        <v>0.1911055601680333</v>
+        <v>-2.07292559449643</v>
       </c>
       <c r="H25">
-        <v>-0.258641106852383</v>
+        <v>0.1925130480743557</v>
       </c>
       <c r="I25">
-        <v>-0.3983172652632915</v>
+        <v>-0.2579532017493174</v>
       </c>
       <c r="J25">
-        <v>0.1282583289796501</v>
+        <v>-0.3979806818825675</v>
       </c>
       <c r="K25">
-        <v>-0.01340599018695743</v>
+        <v>0.1284229565523166</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1422,34 +1422,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-9.361105409453614</v>
+        <v>8.189548673647696</v>
       </c>
       <c r="C26">
-        <v>-1.265562551573157</v>
+        <v>-8.974959151229303</v>
       </c>
       <c r="D26">
-        <v>0.5656570526562616</v>
+        <v>-1.01725560823065</v>
       </c>
       <c r="E26">
-        <v>-2.284997860872285</v>
+        <v>0.6812891314769711</v>
       </c>
       <c r="F26">
-        <v>0.03788812835922643</v>
+        <v>-2.226143026305237</v>
       </c>
       <c r="G26">
-        <v>-0.3840959764584079</v>
+        <v>0.06705817846833073</v>
       </c>
       <c r="H26">
-        <v>-0.5098896570567474</v>
+        <v>-0.3695255935427733</v>
       </c>
       <c r="I26">
-        <v>0.02361057504571989</v>
+        <v>-0.5026284358164976</v>
       </c>
       <c r="J26">
-        <v>-0.1145972687512308</v>
+        <v>0.02723167798804321</v>
       </c>
       <c r="K26">
-        <v>0.5301828050662366</v>
+        <v>-0.1127918163358273</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-8.430792434160105</v>
+        <v>-16.14018903381625</v>
       </c>
       <c r="C27">
-        <v>-5.208997744890677</v>
+        <v>-6.791910405777589</v>
       </c>
       <c r="D27">
-        <v>-6.927055821804304</v>
+        <v>-3.960768829455048</v>
       </c>
       <c r="E27">
-        <v>-3.712639700272918</v>
+        <v>-5.976670854937382</v>
       </c>
       <c r="F27">
-        <v>-3.440181145272791</v>
+        <v>-2.989026990346052</v>
       </c>
       <c r="G27">
-        <v>-3.029594428221893</v>
+        <v>-2.889230364707919</v>
       </c>
       <c r="H27">
-        <v>-2.083867535901119</v>
+        <v>-2.610106546763337</v>
       </c>
       <c r="I27">
-        <v>-1.906303010668634</v>
+        <v>-1.76447406392936</v>
       </c>
       <c r="J27">
-        <v>-1.02014570283596</v>
+        <v>-1.663120324238024</v>
       </c>
       <c r="K27">
-        <v>-0.7105763663018719</v>
+        <v>-0.8349890726314544</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,34 +1492,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-3.528816598321453</v>
+        <v>-5.111729259208365</v>
       </c>
       <c r="C28">
-        <v>0.488988940704401</v>
+        <v>3.455275933053657</v>
       </c>
       <c r="D28">
-        <v>-1.464583384047825</v>
+        <v>-3.728614538712288</v>
       </c>
       <c r="E28">
-        <v>0.5411798699163832</v>
+        <v>0.9923340248431218</v>
       </c>
       <c r="F28">
-        <v>-1.051412526311918</v>
+        <v>-0.9110484627979438</v>
       </c>
       <c r="G28">
-        <v>0.3281387101692014</v>
+        <v>-0.1981003006930162</v>
       </c>
       <c r="H28">
-        <v>-0.3162926321676708</v>
+        <v>-0.1744636854283967</v>
       </c>
       <c r="I28">
-        <v>0.6224268434738385</v>
+        <v>-0.02054777792822543</v>
       </c>
       <c r="J28">
-        <v>0.5727462734054503</v>
+        <v>0.4483335670758678</v>
       </c>
       <c r="K28">
-        <v>0.2775813816354755</v>
+        <v>0.6752115876730926</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,34 +1527,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-3.238217586013594</v>
+        <v>-0.2719305936643379</v>
       </c>
       <c r="C29">
-        <v>0.3982872707157979</v>
+        <v>-1.865743883948665</v>
       </c>
       <c r="D29">
-        <v>-0.2197290542545966</v>
+        <v>0.2314251006721421</v>
       </c>
       <c r="E29">
-        <v>-0.501181530689666</v>
+        <v>-0.3608174671756919</v>
       </c>
       <c r="F29">
-        <v>0.08088546924596179</v>
+        <v>-0.4453535416162557</v>
       </c>
       <c r="G29">
-        <v>-0.0557084915466495</v>
+        <v>0.08612045519262451</v>
       </c>
       <c r="H29">
-        <v>0.5786458232441503</v>
+        <v>-0.06432879815791362</v>
       </c>
       <c r="I29">
-        <v>0.7044337708746514</v>
+        <v>0.580021064545069</v>
       </c>
       <c r="J29">
-        <v>0.3076113034791675</v>
+        <v>0.7052415095167848</v>
       </c>
       <c r="K29">
-        <v>0.2310675656625323</v>
+        <v>0.3072362793633781</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1562,34 +1562,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.8065197243375679</v>
+        <v>-1.457511430326895</v>
       </c>
       <c r="C30">
-        <v>0.03189398963179746</v>
+        <v>0.4830481445585361</v>
       </c>
       <c r="D30">
-        <v>-0.5830875845128012</v>
+        <v>-0.4427235209988271</v>
       </c>
       <c r="E30">
-        <v>0.1559775186272474</v>
+        <v>-0.3702614922349701</v>
       </c>
       <c r="F30">
-        <v>0.05019866896707431</v>
+        <v>0.1920276157063483</v>
       </c>
       <c r="G30">
-        <v>0.6370624694028058</v>
+        <v>-0.005912151999258208</v>
       </c>
       <c r="H30">
-        <v>0.770872454704743</v>
+        <v>0.6464597483751605</v>
       </c>
       <c r="I30">
-        <v>0.3822932620900041</v>
+        <v>0.7799234681276213</v>
       </c>
       <c r="J30">
-        <v>0.3013808575635111</v>
+        <v>0.3775495712643568</v>
       </c>
       <c r="K30">
-        <v>0.5772235623495729</v>
+        <v>0.3009015042266514</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,34 +1597,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.07360522221701771</v>
+        <v>0.377548932709721</v>
       </c>
       <c r="C31">
-        <v>-0.7091928684781591</v>
+        <v>-0.568828804964185</v>
       </c>
       <c r="D31">
-        <v>0.3242255872604791</v>
+        <v>-0.2020134236017385</v>
       </c>
       <c r="E31">
-        <v>0.1108627615709566</v>
+        <v>0.2526917083102306</v>
       </c>
       <c r="F31">
-        <v>0.6481953087774386</v>
+        <v>0.005220687375374677</v>
       </c>
       <c r="G31">
-        <v>0.8337352060316735</v>
+        <v>0.709322499702091</v>
       </c>
       <c r="H31">
-        <v>0.4396447898837473</v>
+        <v>0.8372749959213646</v>
       </c>
       <c r="I31">
-        <v>0.3458860345678901</v>
+        <v>0.4220547482687358</v>
       </c>
       <c r="J31">
-        <v>0.6282974333759916</v>
+        <v>0.35197537525307</v>
       </c>
       <c r="K31">
-        <v>0.4593001789934875</v>
+        <v>0.6305200013052115</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1632,34 +1632,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1.313633488325898</v>
+        <v>-1.173269424811924</v>
       </c>
       <c r="C32">
-        <v>0.2600222099057857</v>
+        <v>-0.2662168009564319</v>
       </c>
       <c r="D32">
-        <v>0.4024100696281734</v>
+        <v>0.5442390163674474</v>
       </c>
       <c r="E32">
-        <v>0.610488432691505</v>
+        <v>-0.03248618871055892</v>
       </c>
       <c r="F32">
-        <v>0.8251511859582124</v>
+        <v>0.70073847962863</v>
       </c>
       <c r="G32">
-        <v>0.5233858674811156</v>
+        <v>0.9210160735187328</v>
       </c>
       <c r="H32">
-        <v>0.3807131794959351</v>
+        <v>0.4568818931967809</v>
       </c>
       <c r="I32">
-        <v>0.6548618164282887</v>
+        <v>0.378539758305367</v>
       </c>
       <c r="J32">
-        <v>0.5047990197400865</v>
+        <v>0.6760188420518104</v>
       </c>
       <c r="K32">
-        <v>0.6500035257015756</v>
+        <v>0.4968561201928344</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1667,34 +1667,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1723813810668744</v>
+        <v>-0.3538576297953431</v>
       </c>
       <c r="C33">
-        <v>0.3499908675985048</v>
+        <v>0.4918198143377789</v>
       </c>
       <c r="D33">
-        <v>0.6691348296765106</v>
+        <v>0.02616020827444671</v>
       </c>
       <c r="E33">
-        <v>0.8300803312953138</v>
+        <v>0.7056676249657313</v>
       </c>
       <c r="F33">
-        <v>0.5122925844322204</v>
+        <v>0.9099227904698376</v>
       </c>
       <c r="G33">
-        <v>0.3934798787210216</v>
+        <v>0.4696485924218674</v>
       </c>
       <c r="H33">
-        <v>0.6635913754756477</v>
+        <v>0.3872693173527261</v>
       </c>
       <c r="I33">
-        <v>0.5073009638889382</v>
+        <v>0.6785207862006621</v>
       </c>
       <c r="J33">
-        <v>0.6562794631732567</v>
+        <v>0.5031320576645155</v>
       </c>
       <c r="K33">
-        <v>0.3761651213703216</v>
+        <v>0.6535938957934404</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1702,34 +1702,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.3724188472315134</v>
+        <v>0.5142477939707875</v>
       </c>
       <c r="C34">
-        <v>0.6717383692389594</v>
+        <v>0.02876374783689539</v>
       </c>
       <c r="D34">
-        <v>0.8080126456412985</v>
+        <v>0.683599939311716</v>
       </c>
       <c r="E34">
-        <v>0.5063106041278653</v>
+        <v>0.9039408101654827</v>
       </c>
       <c r="F34">
-        <v>0.3881366285386105</v>
+        <v>0.4643053422394562</v>
       </c>
       <c r="G34">
-        <v>0.6532228421052815</v>
+        <v>0.3769007839823598</v>
       </c>
       <c r="H34">
-        <v>0.4988236417653144</v>
+        <v>0.6700434640770384</v>
       </c>
       <c r="I34">
-        <v>0.6485071548664459</v>
+        <v>0.4953597493577047</v>
       </c>
       <c r="J34">
-        <v>0.367541147837353</v>
+        <v>0.6449699222604717</v>
       </c>
       <c r="K34">
-        <v>0.2069891273051463</v>
+        <v>0.3699768206640927</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1737,34 +1737,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.6931629406961795</v>
+        <v>0.05018831929411549</v>
       </c>
       <c r="C35">
-        <v>0.9281904944405108</v>
+        <v>0.8037777881109285</v>
       </c>
       <c r="D35">
-        <v>0.4171162597140823</v>
+        <v>0.8147464657516995</v>
       </c>
       <c r="E35">
-        <v>0.3584096246900327</v>
+        <v>0.4345783383908784</v>
       </c>
       <c r="F35">
-        <v>0.6618489621351915</v>
+        <v>0.3855269040122699</v>
       </c>
       <c r="G35">
-        <v>0.4728834683398792</v>
+        <v>0.6441032906516032</v>
       </c>
       <c r="H35">
-        <v>0.6257285918382185</v>
+        <v>0.4725811863294772</v>
       </c>
       <c r="I35">
-        <v>0.3539231126887352</v>
+        <v>0.631351887111854</v>
       </c>
       <c r="J35">
-        <v>0.1884683301199705</v>
+        <v>0.3514560234789169</v>
       </c>
       <c r="K35">
-        <v>0.0637708202161355</v>
+        <v>0.1878533956106533</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1772,34 +1772,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.8858698621201214</v>
+        <v>0.761457155790539</v>
       </c>
       <c r="C36">
-        <v>0.3879117858583491</v>
+        <v>0.7855419918959663</v>
       </c>
       <c r="D36">
-        <v>0.3553890248851115</v>
+        <v>0.4315577385859573</v>
       </c>
       <c r="E36">
-        <v>0.6429876785237111</v>
+        <v>0.3666656204007895</v>
       </c>
       <c r="F36">
-        <v>0.4525523372746749</v>
+        <v>0.623772159586399</v>
       </c>
       <c r="G36">
-        <v>0.6111984364039706</v>
+        <v>0.4580510308952294</v>
       </c>
       <c r="H36">
-        <v>0.3372820671964672</v>
+        <v>0.6147108416195859</v>
       </c>
       <c r="I36">
-        <v>0.1708844846912203</v>
+        <v>0.3338721780501667</v>
       </c>
       <c r="J36">
-        <v>0.04729693668609269</v>
+        <v>0.1713795120806105</v>
       </c>
       <c r="K36">
-        <v>0.5643005784802194</v>
+        <v>0.04814754147425859</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1807,34 +1807,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.7281095264762592</v>
+        <v>1.125739732513876</v>
       </c>
       <c r="C37">
-        <v>0.4307600866690486</v>
+        <v>0.5069288003698943</v>
       </c>
       <c r="D37">
-        <v>0.451894392210712</v>
+        <v>0.1755723340877904</v>
       </c>
       <c r="E37">
-        <v>0.4772462498614081</v>
+        <v>0.6484660721731321</v>
       </c>
       <c r="F37">
-        <v>0.6205778399602666</v>
+        <v>0.4674304344515254</v>
       </c>
       <c r="G37">
-        <v>0.2824712685850762</v>
+        <v>0.5599000430081948</v>
       </c>
       <c r="H37">
-        <v>0.1519903938025505</v>
+        <v>0.3149780871614969</v>
       </c>
       <c r="I37">
-        <v>0.03243293587104695</v>
+        <v>0.1565155112655648</v>
       </c>
       <c r="J37">
-        <v>0.5355888678508487</v>
+        <v>0.01943583084488787</v>
       </c>
       <c r="K37">
-        <v>0.3304428394308724</v>
+        <v>0.5403464745801891</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,31 +1842,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.8814549586592991</v>
+        <v>0.9576236723601449</v>
       </c>
       <c r="C38">
-        <v>0.4990050944230704</v>
+        <v>0.2226830363001488</v>
       </c>
       <c r="D38">
-        <v>0.2369630190705999</v>
+        <v>0.4081828413823239</v>
       </c>
       <c r="E38">
-        <v>0.6565229210261294</v>
+        <v>0.5033755155173882</v>
       </c>
       <c r="F38">
-        <v>0.2804205111454833</v>
+        <v>0.557849285568602</v>
       </c>
       <c r="G38">
-        <v>0.07542215436652031</v>
+        <v>0.2384098477254667</v>
       </c>
       <c r="H38">
-        <v>0.005033541495763572</v>
+        <v>0.1291161168902814</v>
       </c>
       <c r="I38">
-        <v>0.5092998176531234</v>
+        <v>-0.006853219352837503</v>
       </c>
       <c r="J38">
-        <v>0.2870455487175398</v>
+        <v>0.4969491838668565</v>
+      </c>
+      <c r="K38">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1874,28 +1877,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.8113306813466088</v>
+        <v>0.5350086232236873</v>
       </c>
       <c r="C39">
-        <v>0.3702517588061242</v>
+        <v>0.5414715811178482</v>
       </c>
       <c r="D39">
-        <v>0.4774444992099378</v>
+        <v>0.3242970937011966</v>
       </c>
       <c r="E39">
-        <v>0.3086147499160505</v>
+        <v>0.5860435243391693</v>
       </c>
       <c r="F39">
-        <v>0.1114474655589138</v>
+        <v>0.2744351589178602</v>
       </c>
       <c r="G39">
-        <v>-0.03250802870845004</v>
+        <v>0.09157454668606776</v>
       </c>
       <c r="H39">
-        <v>0.5037574785657621</v>
+        <v>-0.01239555844019874</v>
       </c>
       <c r="I39">
-        <v>0.2912208776562884</v>
+        <v>0.5011245128056051</v>
+      </c>
+      <c r="J39">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1903,25 +1909,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.6058422499139654</v>
+        <v>0.7770620722256893</v>
       </c>
       <c r="C40">
-        <v>0.5621232400842474</v>
+        <v>0.4089758345755062</v>
       </c>
       <c r="D40">
-        <v>0.1630143832823334</v>
+        <v>0.4404431577054521</v>
       </c>
       <c r="E40">
-        <v>0.1214012084181564</v>
+        <v>0.2843889017771028</v>
       </c>
       <c r="F40">
-        <v>-0.01714285900890511</v>
+        <v>0.1069397163856127</v>
       </c>
       <c r="G40">
-        <v>0.464909143608339</v>
+        <v>-0.05124389339762181</v>
       </c>
       <c r="H40">
-        <v>0.2753750686291025</v>
+        <v>0.4852787037784192</v>
+      </c>
+      <c r="I40">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1929,22 +1938,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.8731474265656303</v>
+        <v>0.720000021056889</v>
       </c>
       <c r="C41">
-        <v>0.2801031576935286</v>
+        <v>0.5575319321166473</v>
       </c>
       <c r="D41">
-        <v>-0.04106293303141043</v>
+        <v>0.121924760327536</v>
       </c>
       <c r="E41">
-        <v>0.01181609145629647</v>
+        <v>0.1358986668508143</v>
       </c>
       <c r="F41">
-        <v>0.5006520160632426</v>
+        <v>-0.01550102094271821</v>
       </c>
       <c r="G41">
-        <v>0.2440474222454754</v>
+        <v>0.4539510573947921</v>
+      </c>
+      <c r="H41">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1952,19 +1964,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.526928335097643</v>
+        <v>0.8043571095207618</v>
       </c>
       <c r="C42">
-        <v>-0.02340706549352092</v>
+        <v>0.1395806278654255</v>
       </c>
       <c r="D42">
-        <v>-0.08280614765469801</v>
+        <v>0.04127642773981979</v>
       </c>
       <c r="E42">
-        <v>0.5328694043117227</v>
+        <v>0.01671636730576187</v>
       </c>
       <c r="F42">
-        <v>0.2564355480731927</v>
+        <v>0.4663391832225094</v>
+      </c>
+      <c r="G42">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1972,16 +1987,19 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.216269293922691</v>
+        <v>0.3792569872816374</v>
       </c>
       <c r="C43">
-        <v>0.002218095814515486</v>
+        <v>0.1263006712090333</v>
       </c>
       <c r="D43">
-        <v>0.4163848259537086</v>
+        <v>-0.09976821105225223</v>
       </c>
       <c r="E43">
-        <v>0.2715408197250452</v>
+        <v>0.4814444548743619</v>
+      </c>
+      <c r="F43">
+        <v>0.2766837437271186</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1989,13 +2007,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.1670781728486028</v>
+        <v>0.2911607482431205</v>
       </c>
       <c r="C44">
-        <v>0.4299220982016248</v>
+        <v>-0.08623093880433602</v>
       </c>
       <c r="D44">
-        <v>0.2085679007350822</v>
+        <v>0.4184715358843989</v>
+      </c>
+      <c r="E44">
+        <v>0.2867219094086165</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2003,10 +2024,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.6837711400670328</v>
+        <v>0.167618103061072</v>
       </c>
       <c r="C45">
-        <v>0.3078859509171186</v>
+        <v>0.5177895860664353</v>
+      </c>
+      <c r="D45">
+        <v>0.1751453671933744</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,12 +2038,18 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.3519456421565676</v>
+        <v>0.5618492773058843</v>
+      </c>
+      <c r="C46">
+        <v>0.1965658720679752</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>
